--- a/Gruppe/Mødetidting.xlsx
+++ b/Gruppe/Mødetidting.xlsx
@@ -457,12 +457,12 @@
   <dimension ref="A1:PR81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="3"/>

--- a/Gruppe/Mødetidting.xlsx
+++ b/Gruppe/Mødetidting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Malthe</t>
   </si>
@@ -42,9 +42,6 @@
     <t>15 minutter</t>
   </si>
   <si>
-    <t>Har undskyldning</t>
-  </si>
-  <si>
     <t>Strikes</t>
   </si>
   <si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Er undskyldt</t>
+  </si>
+  <si>
+    <t>20 minutter</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -153,6 +171,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +477,7 @@
   <dimension ref="A1:PR81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +485,11 @@
     <col min="1" max="1" width="10.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="11"/>
     <col min="9" max="9" width="6.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" style="2" bestFit="1" customWidth="1"/>
@@ -497,16 +518,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -526,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -538,33 +559,45 @@
         <v>0</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42658</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42659</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
@@ -572,16 +605,34 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42660</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
@@ -589,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -623,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
